--- a/Sorts.xlsx
+++ b/Sorts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elco45\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elco45\Desktop\Analisis_Algoritmo\sorts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Bubble Sort</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Promedio (segundos)</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -147,13 +150,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,11 +780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509842240"/>
-        <c:axId val="509843808"/>
+        <c:axId val="435449896"/>
+        <c:axId val="435447152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="509842240"/>
+        <c:axId val="435449896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +895,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509843808"/>
+        <c:crossAx val="435447152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509843808"/>
+        <c:axId val="435447152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1014,7 +1018,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509842240"/>
+        <c:crossAx val="435449896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1702,11 +1706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506430952"/>
-        <c:axId val="506433696"/>
+        <c:axId val="435454208"/>
+        <c:axId val="435444800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="506430952"/>
+        <c:axId val="435454208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +1814,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506433696"/>
+        <c:crossAx val="435444800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="506433696"/>
+        <c:axId val="435444800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -1933,7 +1937,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506430952"/>
+        <c:crossAx val="435454208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3432,42 +3436,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="6" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="Q1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -3532,13 +3540,13 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>1.8742000000000001E-5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>2.142E-4</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>9.2908900000000002E-4</v>
       </c>
       <c r="E3" s="1">
@@ -3554,13 +3562,13 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>5.3550000000000004E-6</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>4.5071000000000003E-5</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>1.7225199999999999E-4</v>
       </c>
       <c r="M3" s="1">
@@ -3575,16 +3583,16 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="6">
         <v>3.1240000000000001E-6</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <v>3.2576000000000001E-5</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
         <v>1.5797200000000001E-4</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="6">
         <v>9.2641200000000005E-4</v>
       </c>
       <c r="V3" s="1">
@@ -3598,13 +3606,13 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>2.678E-6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1.7537499999999999E-4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>8.8401799999999998E-4</v>
       </c>
       <c r="E4" s="1">
@@ -3620,13 +3628,13 @@
       <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>3.123E-6</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>2.0528000000000001E-5</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>1.67343E-4</v>
       </c>
       <c r="M4" s="1">
@@ -3641,16 +3649,16 @@
       <c r="Q4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="6">
         <v>2.678E-6</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>2.5882000000000001E-5</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <v>1.07546E-4</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>7.8762899999999998E-4</v>
       </c>
       <c r="V4" s="1">
@@ -3664,13 +3672,13 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>1.7002E-4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>8.7911E-4</v>
       </c>
       <c r="E5" s="1">
@@ -3686,13 +3694,13 @@
       <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>2.678E-6</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>1.9635000000000001E-5</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>1.6065E-4</v>
       </c>
       <c r="M5" s="1">
@@ -3707,16 +3715,16 @@
       <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>2.499E-5</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>1.04422E-4</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>7.9789200000000002E-4</v>
       </c>
       <c r="V5" s="1">
@@ -3730,13 +3738,13 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>2.678E-6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>1.81177E-4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>8.8267900000000004E-4</v>
       </c>
       <c r="E6" s="1">
@@ -3752,13 +3760,13 @@
       <c r="I6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>1.9188999999999999E-5</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>1.54401E-4</v>
       </c>
       <c r="M6" s="1">
@@ -3773,16 +3781,16 @@
       <c r="Q6" s="2">
         <v>4</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>2.3651000000000001E-5</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>1.0843799999999999E-4</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>8.6572199999999998E-4</v>
       </c>
       <c r="V6" s="1">
@@ -3796,13 +3804,13 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>1.1603000000000001E-5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>1.8430000000000001E-4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>8.5768900000000002E-4</v>
       </c>
       <c r="E7" s="1">
@@ -3818,13 +3826,13 @@
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>1.9188999999999999E-5</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>2.18662E-4</v>
       </c>
       <c r="M7" s="1">
@@ -3839,16 +3847,16 @@
       <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>4.1054999999999999E-5</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>1.04869E-4</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <v>8.2109700000000002E-4</v>
       </c>
       <c r="V7" s="1">
@@ -3862,13 +3870,13 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>1.2941E-5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>2.0572E-4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>8.4965699999999997E-4</v>
       </c>
       <c r="E8" s="1">
@@ -3884,13 +3892,13 @@
       <c r="I8" s="2">
         <v>6</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>2.3204999999999999E-5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>2.3115599999999999E-4</v>
       </c>
       <c r="M8" s="1">
@@ -3905,16 +3913,16 @@
       <c r="Q8" s="2">
         <v>6</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>4.1054999999999999E-5</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>1.0620699999999999E-4</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>7.8093499999999996E-4</v>
       </c>
       <c r="V8" s="1">
@@ -3928,13 +3936,13 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>2.232E-6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>2.0929E-4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>8.5233399999999995E-4</v>
       </c>
       <c r="E9" s="1">
@@ -3950,13 +3958,13 @@
       <c r="I9" s="2">
         <v>7</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>1.8743E-5</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>2.2981799999999999E-4</v>
       </c>
       <c r="M9" s="1">
@@ -3971,16 +3979,16 @@
       <c r="Q9" s="2">
         <v>7</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="6">
         <v>4.2840000000000003E-5</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="6">
         <v>1.49493E-4</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="6">
         <v>8.4653300000000001E-4</v>
       </c>
       <c r="V9" s="1">
@@ -3994,13 +4002,13 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>2.1643000000000001E-4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>8.63045E-4</v>
       </c>
       <c r="E10" s="1">
@@ -4016,13 +4024,13 @@
       <c r="I10" s="2">
         <v>8</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>2.3204999999999999E-5</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>2.22678E-4</v>
       </c>
       <c r="M10" s="1">
@@ -4037,16 +4045,16 @@
       <c r="Q10" s="2">
         <v>8</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <v>2.6775E-5</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="6">
         <v>1.31643E-4</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>7.9967700000000005E-4</v>
       </c>
       <c r="V10" s="1">
@@ -4060,13 +4068,13 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>2.0839799999999999E-4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>8.5099600000000002E-4</v>
       </c>
       <c r="E11" s="1">
@@ -4082,13 +4090,13 @@
       <c r="I11" s="2">
         <v>9</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>3.1240000000000001E-6</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>2.1420000000000002E-5</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>2.3338800000000001E-4</v>
       </c>
       <c r="M11" s="1">
@@ -4103,16 +4111,16 @@
       <c r="Q11" s="2">
         <v>9</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="6">
         <v>2.5882000000000001E-5</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="6">
         <v>1.04868E-4</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="6">
         <v>8.1351100000000005E-4</v>
       </c>
       <c r="V11" s="1">
@@ -4126,13 +4134,13 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>2.1776900000000001E-4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>8.7286199999999997E-4</v>
       </c>
       <c r="E12" s="1">
@@ -4148,13 +4156,13 @@
       <c r="I12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>2.5435999999999998E-5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>1.7849900000000001E-4</v>
       </c>
       <c r="M12" s="1">
@@ -4169,16 +4177,16 @@
       <c r="Q12" s="2">
         <v>10</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="6">
         <v>2.4097E-5</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="6">
         <v>1.0576100000000001E-4</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <v>7.8628900000000002E-4</v>
       </c>
       <c r="V12" s="1">
@@ -4272,24 +4280,24 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="6" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="I15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -4335,10 +4343,10 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>1.7537600000000001E-4</v>
       </c>
       <c r="D17" s="1">
@@ -4357,13 +4365,13 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>2.4544000000000001E-5</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>7.0061000000000006E-5</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>2.00366E-4</v>
       </c>
       <c r="M17" s="1">
@@ -4380,10 +4388,10 @@
       <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>1.80285E-4</v>
       </c>
       <c r="D18" s="1">
@@ -4402,13 +4410,13 @@
       <c r="I18" s="2">
         <v>2</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>4.9089999999999999E-6</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>8.3002000000000003E-5</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>1.90101E-4</v>
       </c>
       <c r="M18" s="1">
@@ -4425,10 +4433,10 @@
       <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>1.7359100000000001E-4</v>
       </c>
       <c r="D19" s="1">
@@ -4447,13 +4455,13 @@
       <c r="I19" s="2">
         <v>3</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>5.3550000000000004E-6</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>6.2921000000000003E-5</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>1.7582200000000001E-4</v>
       </c>
       <c r="M19" s="1">
@@ -4470,10 +4478,10 @@
       <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>2.678E-6</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>1.5574E-4</v>
       </c>
       <c r="D20" s="1">
@@ -4492,13 +4500,13 @@
       <c r="I20" s="2">
         <v>4</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>1.2048999999999999E-5</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>6.8721999999999997E-5</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>8.4385500000000002E-4</v>
       </c>
       <c r="M20" s="1">
@@ -4515,10 +4523,10 @@
       <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>2.232E-6</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>1.5975700000000001E-4</v>
       </c>
       <c r="D21" s="1">
@@ -4537,13 +4545,13 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>1.4725999999999999E-5</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>5.3550000000000001E-5</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>1.8028400000000001E-4</v>
       </c>
       <c r="M21" s="1">
@@ -4560,10 +4568,10 @@
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>3.5700000000000001E-6</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>1.5529500000000001E-4</v>
       </c>
       <c r="D22" s="1">
@@ -4582,13 +4590,13 @@
       <c r="I22" s="2">
         <v>6</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>4.9089999999999999E-6</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>3.5253000000000003E-5</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>1.7983800000000001E-4</v>
       </c>
       <c r="M22" s="1">
@@ -4605,10 +4613,10 @@
       <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>2.2309999999999999E-6</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>1.5395599999999999E-4</v>
       </c>
       <c r="D23" s="1">
@@ -4627,13 +4635,13 @@
       <c r="I23" s="2">
         <v>7</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>5.801E-6</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>3.8377000000000002E-5</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>1.7582200000000001E-4</v>
       </c>
       <c r="M23" s="1">
@@ -4650,10 +4658,10 @@
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>1.5127900000000001E-4</v>
       </c>
       <c r="D24" s="1">
@@ -4672,13 +4680,13 @@
       <c r="I24" s="2">
         <v>8</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>4.4619999999999998E-6</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>3.4808000000000003E-5</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>1.85193E-4</v>
       </c>
       <c r="M24" s="1">
@@ -4695,10 +4703,10 @@
       <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>2.6769999999999999E-6</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>1.47262E-4</v>
       </c>
       <c r="D25" s="1">
@@ -4717,13 +4725,13 @@
       <c r="I25" s="2">
         <v>9</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>4.4619999999999998E-6</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>1.6957999999999999E-5</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>1.7046699999999999E-4</v>
       </c>
       <c r="M25" s="1">
@@ -4740,10 +4748,10 @@
       <c r="A26" s="2">
         <v>10</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>2.678E-6</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>1.5038599999999999E-4</v>
       </c>
       <c r="D26" s="1">
@@ -4762,13 +4770,13 @@
       <c r="I26" s="2">
         <v>10</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>4.9089999999999999E-6</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>1.428E-5</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>1.7983800000000001E-4</v>
       </c>
       <c r="M26" s="1">
@@ -4838,24 +4846,24 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="6" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="I29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -4901,13 +4909,13 @@
       <c r="A31" s="2">
         <v>1</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>6.3812999999999994E-5</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>1.49493E-4</v>
       </c>
       <c r="E31" s="1">
@@ -4923,13 +4931,13 @@
       <c r="I31" s="2">
         <v>1</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>3.9715999999999997E-5</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <v>1.7269799999999999E-4</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>2.9854000000000002E-4</v>
       </c>
       <c r="M31" s="1">
@@ -4946,13 +4954,13 @@
       <c r="A32" s="2">
         <v>2</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>1.339E-6</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>8.3448000000000005E-5</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>1.5707899999999999E-4</v>
       </c>
       <c r="E32" s="1">
@@ -4968,13 +4976,13 @@
       <c r="I32" s="2">
         <v>2</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="6">
         <v>1.9188999999999999E-5</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="6">
         <v>1.8206900000000001E-4</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <v>2.6060900000000003E-4</v>
       </c>
       <c r="M32" s="1">
@@ -4991,13 +4999,13 @@
       <c r="A33" s="2">
         <v>3</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <v>1.3379999999999999E-6</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <v>7.2738999999999996E-5</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>1.4681500000000001E-4</v>
       </c>
       <c r="E33" s="1">
@@ -5013,13 +5021,13 @@
       <c r="I33" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="6">
         <v>2.2313000000000001E-5</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <v>1.6065E-4</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="6">
         <v>2.04382E-4</v>
       </c>
       <c r="M33" s="1">
@@ -5036,13 +5044,13 @@
       <c r="A34" s="2">
         <v>4</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <v>7.7200999999999995E-5</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>1.58419E-4</v>
       </c>
       <c r="E34" s="1">
@@ -5058,13 +5066,13 @@
       <c r="I34" s="2">
         <v>4</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="6">
         <v>1.785E-5</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="6">
         <v>1.81177E-4</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="6">
         <v>1.99027E-4</v>
       </c>
       <c r="M34" s="1">
@@ -5081,13 +5089,13 @@
       <c r="A35" s="2">
         <v>5</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>7.7200999999999995E-5</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>1.5038599999999999E-4</v>
       </c>
       <c r="E35" s="1">
@@ -5103,13 +5111,13 @@
       <c r="I35" s="2">
         <v>5</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="6">
         <v>1.8297000000000001E-5</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="6">
         <v>1.9054799999999999E-4</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="6">
         <v>2.22232E-4</v>
       </c>
       <c r="M35" s="1">
@@ -5126,13 +5134,13 @@
       <c r="A36" s="2">
         <v>6</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>1.7850000000000001E-6</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>6.3813999999999996E-5</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <v>1.45477E-4</v>
       </c>
       <c r="E36" s="1">
@@ -5148,13 +5156,13 @@
       <c r="I36" s="2">
         <v>6</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="6">
         <v>1.785E-5</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="6">
         <v>1.6377300000000001E-4</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="6">
         <v>1.9768800000000001E-4</v>
       </c>
       <c r="M36" s="1">
@@ -5171,13 +5179,13 @@
       <c r="A37" s="2">
         <v>7</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>1.339E-6</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>7.6308000000000002E-5</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>1.4681500000000001E-4</v>
       </c>
       <c r="E37" s="1">
@@ -5193,13 +5201,13 @@
       <c r="I37" s="2">
         <v>7</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="6">
         <v>1.8295999999999999E-5</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="6">
         <v>1.74036E-4</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="6">
         <v>2.00812E-4</v>
       </c>
       <c r="M37" s="1">
@@ -5216,13 +5224,13 @@
       <c r="A38" s="2">
         <v>8</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <v>1.3379999999999999E-6</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="6">
         <v>7.8094000000000001E-5</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>1.3967499999999999E-4</v>
       </c>
       <c r="E38" s="1">
@@ -5238,13 +5246,13 @@
       <c r="I38" s="2">
         <v>8</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="6">
         <v>1.7402999999999999E-5</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="6">
         <v>1.6778999999999999E-4</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="6">
         <v>1.9768800000000001E-4</v>
       </c>
       <c r="M38" s="1">
@@ -5261,13 +5269,13 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>8.9199999999999999E-7</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="6">
         <v>7.3631E-5</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>1.4681500000000001E-4</v>
       </c>
       <c r="E39" s="1">
@@ -5283,13 +5291,13 @@
       <c r="I39" s="2">
         <v>9</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="6">
         <v>1.7402999999999999E-5</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="6">
         <v>1.65558E-4</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="6">
         <v>2.22678E-4</v>
       </c>
       <c r="M39" s="1">
@@ -5306,13 +5314,13 @@
       <c r="A40" s="2">
         <v>10</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>1.3379999999999999E-6</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="6">
         <v>8.5679000000000004E-5</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>1.46816E-4</v>
       </c>
       <c r="E40" s="1">
@@ -5328,13 +5336,13 @@
       <c r="I40" s="2">
         <v>10</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="6">
         <v>1.8297000000000001E-5</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="6">
         <v>1.7939200000000001E-4</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="6">
         <v>1.9813400000000001E-4</v>
       </c>
       <c r="M40" s="1">
@@ -5403,8 +5411,244 @@
         <v>0.1541365653</v>
       </c>
     </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H45" s="3"/>
+      <c r="I45" s="2">
+        <v>10</v>
+      </c>
+      <c r="J45" s="2">
+        <v>100</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M45" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <f>B13</f>
+        <v>6.0690000000000007E-6</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" ref="J46:N46" si="10">C13</f>
+        <v>1.9826790000000003E-4</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="10"/>
+        <v>8.7214790000000007E-4</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="10"/>
+        <v>0.1101662497</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="10"/>
+        <v>14.5176865596</v>
+      </c>
+      <c r="N46" s="9">
+        <f t="shared" si="10"/>
+        <v>145.176865596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9">
+        <f>B27</f>
+        <v>2.6774E-6</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" ref="J47:N47" si="11">C27</f>
+        <v>1.602927E-4</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="11"/>
+        <v>1.1586836E-3</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="11"/>
+        <v>0.1355167219</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="11"/>
+        <v>13.690249564199998</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="11"/>
+        <v>136.90249564200002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="9">
+        <f>B41</f>
+        <v>1.4724000000000001E-6</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" ref="J48:N48" si="12">C41</f>
+        <v>7.5192799999999996E-5</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" si="12"/>
+        <v>1.4877899999999998E-4</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="12"/>
+        <v>1.3165484600000003E-2</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="12"/>
+        <v>1.2885334269000002</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" si="12"/>
+        <v>12.885334269000001</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="9">
+        <f>J13</f>
+        <v>2.6328000000000004E-6</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" ref="J49:N49" si="13">K13</f>
+        <v>2.3562099999999996E-5</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="13"/>
+        <v>1.9688469999999998E-4</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="13"/>
+        <v>1.6991795000000001E-3</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="13"/>
+        <v>1.4652963799999998E-2</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="13"/>
+        <v>0.20517674780000003</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="9">
+        <f>J27</f>
+        <v>8.6125999999999995E-6</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" ref="J50:N50" si="14">K27</f>
+        <v>4.7793199999999995E-5</v>
+      </c>
+      <c r="K50" s="9">
+        <f t="shared" si="14"/>
+        <v>2.4815859999999999E-4</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" si="14"/>
+        <v>1.4820352000000001E-3</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="14"/>
+        <v>1.5382490599999998E-2</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="14"/>
+        <v>0.18346775069999999</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="9">
+        <f>J41</f>
+        <v>2.0661400000000002E-5</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" ref="J51:N51" si="15">K41</f>
+        <v>1.737691E-4</v>
+      </c>
+      <c r="K51" s="9">
+        <f t="shared" si="15"/>
+        <v>2.2017899999999998E-4</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="15"/>
+        <v>1.4170166999999997E-3</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="15"/>
+        <v>1.5149638100000001E-2</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="15"/>
+        <v>0.1541365653</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="9">
+        <f>R13</f>
+        <v>2.1866000000000004E-6</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" ref="J52:N52" si="16">S13</f>
+        <v>3.0880300000000003E-5</v>
+      </c>
+      <c r="K52" s="9">
+        <f t="shared" si="16"/>
+        <v>1.1812190000000001E-4</v>
+      </c>
+      <c r="L52" s="9">
+        <f t="shared" si="16"/>
+        <v>8.2256970000000001E-4</v>
+      </c>
+      <c r="M52" s="9">
+        <f t="shared" si="16"/>
+        <v>9.7663666999999992E-3</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" si="16"/>
+        <v>0.1143757544</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H44:N44"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:W1"/>

--- a/Sorts.xlsx
+++ b/Sorts.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -151,13 +152,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,7 +211,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>Sorting algorithms</a:t>
+              <a:t>All Sorting algorithms</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -780,11 +781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435449896"/>
-        <c:axId val="435447152"/>
+        <c:axId val="441045976"/>
+        <c:axId val="441051072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435449896"/>
+        <c:axId val="441045976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +896,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435447152"/>
+        <c:crossAx val="441051072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,7 +904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435447152"/>
+        <c:axId val="441051072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1018,7 +1019,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435449896"/>
+        <c:crossAx val="441045976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1136,7 +1137,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-419"/>
-              <a:t>Sorting algorithms extended</a:t>
+              <a:t>All Sorting algorithms extended</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1706,11 +1707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435454208"/>
-        <c:axId val="435444800"/>
+        <c:axId val="441047544"/>
+        <c:axId val="441054600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435454208"/>
+        <c:axId val="441047544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1815,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435444800"/>
+        <c:crossAx val="441054600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435444800"/>
+        <c:axId val="441054600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -1937,7 +1938,7 @@
             <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435454208"/>
+        <c:crossAx val="441047544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1985,6 +1986,2986 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0690000000000007E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9826790000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7214790000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1101662497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5176865596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145.176865596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441096152"/>
+        <c:axId val="441096936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441096152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441096936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441096936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441096152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6774E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.602927E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1586836E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1355167219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.690249564199998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.90249564200002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441096544"/>
+        <c:axId val="441097328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441096544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51190157480314957"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441097328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441097328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr lang="es-419" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr lang="es-419" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-419" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr lang="es-419" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441096544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6328000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3562099999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9688469999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6991795000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4652963799999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20517674780000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441114184"/>
+        <c:axId val="441112616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441114184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441112616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441112616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441114184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4724000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5192799999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4877899999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3165484600000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2885334269000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.885334269000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441104776"/>
+        <c:axId val="441105560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441104776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441105560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441105560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441104776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.6125999999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7793199999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4815859999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4820352000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5382490599999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18346775069999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441137312"/>
+        <c:axId val="441137704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441137312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441137704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441137704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441137312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$13:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1866000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0880300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1812190000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2256970000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7663666999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1143757544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441132608"/>
+        <c:axId val="441138096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441132608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Number of elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441138096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441138096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441132608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$41:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0661400000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.737691E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2017899999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4170166999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5149638100000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1541365653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441150640"/>
+        <c:axId val="441164752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441150640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-419" baseline="0"/>
+                  <a:t> of elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-419"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441164752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441164752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-419"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-419"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441150640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2100,6 +5081,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2753,6 +5896,3618 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3165,6 +9920,233 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3438,8 +10420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:N52"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3449,33 +10431,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="7" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -4280,24 +11262,24 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="I15" s="7" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="I15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -4846,24 +11828,24 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="I29" s="7" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="I29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -5412,15 +12394,15 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H45" s="3"/>
@@ -5447,27 +12429,27 @@
       <c r="H46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="7">
         <f>B13</f>
         <v>6.0690000000000007E-6</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="7">
         <f t="shared" ref="J46:N46" si="10">C13</f>
         <v>1.9826790000000003E-4</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="7">
         <f t="shared" si="10"/>
         <v>8.7214790000000007E-4</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="7">
         <f t="shared" si="10"/>
         <v>0.1101662497</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="7">
         <f t="shared" si="10"/>
         <v>14.5176865596</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="7">
         <f t="shared" si="10"/>
         <v>145.176865596</v>
       </c>
@@ -5476,27 +12458,27 @@
       <c r="H47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <f>B27</f>
         <v>2.6774E-6</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="7">
         <f t="shared" ref="J47:N47" si="11">C27</f>
         <v>1.602927E-4</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="7">
         <f t="shared" si="11"/>
         <v>1.1586836E-3</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="7">
         <f t="shared" si="11"/>
         <v>0.1355167219</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="7">
         <f t="shared" si="11"/>
         <v>13.690249564199998</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="7">
         <f t="shared" si="11"/>
         <v>136.90249564200002</v>
       </c>
@@ -5505,27 +12487,27 @@
       <c r="H48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <f>B41</f>
         <v>1.4724000000000001E-6</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="7">
         <f t="shared" ref="J48:N48" si="12">C41</f>
         <v>7.5192799999999996E-5</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="7">
         <f t="shared" si="12"/>
         <v>1.4877899999999998E-4</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="7">
         <f t="shared" si="12"/>
         <v>1.3165484600000003E-2</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="7">
         <f t="shared" si="12"/>
         <v>1.2885334269000002</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="7">
         <f t="shared" si="12"/>
         <v>12.885334269000001</v>
       </c>
@@ -5534,27 +12516,27 @@
       <c r="H49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="7">
         <f>J13</f>
         <v>2.6328000000000004E-6</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="7">
         <f t="shared" ref="J49:N49" si="13">K13</f>
         <v>2.3562099999999996E-5</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="7">
         <f t="shared" si="13"/>
         <v>1.9688469999999998E-4</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="7">
         <f t="shared" si="13"/>
         <v>1.6991795000000001E-3</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="7">
         <f t="shared" si="13"/>
         <v>1.4652963799999998E-2</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="7">
         <f t="shared" si="13"/>
         <v>0.20517674780000003</v>
       </c>
@@ -5563,27 +12545,27 @@
       <c r="H50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <f>J27</f>
         <v>8.6125999999999995E-6</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="7">
         <f t="shared" ref="J50:N50" si="14">K27</f>
         <v>4.7793199999999995E-5</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="7">
         <f t="shared" si="14"/>
         <v>2.4815859999999999E-4</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="7">
         <f t="shared" si="14"/>
         <v>1.4820352000000001E-3</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="7">
         <f t="shared" si="14"/>
         <v>1.5382490599999998E-2</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="7">
         <f t="shared" si="14"/>
         <v>0.18346775069999999</v>
       </c>
@@ -5592,27 +12574,27 @@
       <c r="H51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="7">
         <f>J41</f>
         <v>2.0661400000000002E-5</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="7">
         <f t="shared" ref="J51:N51" si="15">K41</f>
         <v>1.737691E-4</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="7">
         <f t="shared" si="15"/>
         <v>2.2017899999999998E-4</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="7">
         <f t="shared" si="15"/>
         <v>1.4170166999999997E-3</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="7">
         <f t="shared" si="15"/>
         <v>1.5149638100000001E-2</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="7">
         <f t="shared" si="15"/>
         <v>0.1541365653</v>
       </c>
@@ -5621,27 +12603,27 @@
       <c r="H52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="7">
         <f>R13</f>
         <v>2.1866000000000004E-6</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="7">
         <f t="shared" ref="J52:N52" si="16">S13</f>
         <v>3.0880300000000003E-5</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="7">
         <f t="shared" si="16"/>
         <v>1.1812190000000001E-4</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="7">
         <f t="shared" si="16"/>
         <v>8.2256970000000001E-4</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="7">
         <f t="shared" si="16"/>
         <v>9.7663666999999992E-3</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="7">
         <f t="shared" si="16"/>
         <v>0.1143757544</v>
       </c>
@@ -5660,4 +12642,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>